--- a/Scraping/Medtronic/Medtronic.xlsx
+++ b/Scraping/Medtronic/Medtronic.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,35 +448,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>カテゴリコード</t>
+          <t>カテゴリコード１</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>カテゴリコード２</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>カテゴリコード３</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>メーカーコード</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>メーカー名称</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>新着記事カテゴリ</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>新着記事タイトル</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>新着記事URL</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>新製品記事</t>
         </is>
@@ -485,25 +495,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020610</t>
+          <t>2020818</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>心臓カテーテル</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>不整脈</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>手術室</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>日本メドトロニック</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>日本メドトロニック　脊髄誘発電位測定等加算に関する診療報酬改定により、 術中神経モニタリング装置「NIM™システム3.0」の保険適用が拡大【詳細】</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.medtronic.com/jp-ja/about/news/pressrelease/2020-6-10.html</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>日本メドトロニック 冷凍アブレーションカテーテル製品が持続性心房細動治療に対する治療用カテーテルとして適応拡大の薬事承認を取得【詳細】</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.medtronic.com/jp-ja/about/news/pressrelease/2020-8-18.html</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Scraping/Medtronic/Medtronic.xlsx
+++ b/Scraping/Medtronic/Medtronic.xlsx
@@ -495,7 +495,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020818</t>
+          <t>20200818</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
